--- a/medicine/Psychotrope/Liste_d'additifs_dans_les_cigarettes/Liste_d'additifs_dans_les_cigarettes.xlsx
+++ b/medicine/Psychotrope/Liste_d'additifs_dans_les_cigarettes/Liste_d'additifs_dans_les_cigarettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste de 599 additifs aux cigarettes, adressée au Department of Health and Human Services des États-Unis, en avril 1994, par cinq grands groupes du secteur du tabac : American Tobacco Company, Brown and Williamson, Liggett Group, Inc., Philip Morris Inc. et RJ Reynolds Tobacco Company.
 Bien que ces composés chimiques aient été autorisés en tant qu'additifs alimentaires, ils n'ont pas toujours subi de tests quant à l'impact sur la santé de leur absorption après combustion. En effet, la nature des composés chimiques se modifie lorsqu'ils sont soumis à une combustion ; ainsi, la combustion d'une cigarette donne naissance à plus de 4 000 autres composés chimiques.
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,6 +552,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,6 +580,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,6 +608,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,6 +636,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,6 +664,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,6 +692,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -677,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -696,6 +720,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -703,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,6 +748,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -729,7 +757,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -748,6 +776,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -755,7 +785,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -773,7 +803,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Huile, essence absolue et essence concrète de Jasmin</t>
         </is>
@@ -785,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -803,7 +835,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Cétone de méthyle 2-pyrrolyle (2-acétyl-1-pyrroline ?)
 Cétone de méthyle et de naphtyle
@@ -817,7 +851,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -836,6 +870,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -843,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -862,6 +898,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -869,7 +907,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -888,6 +926,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -895,7 +935,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -914,6 +954,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -921,7 +963,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -940,6 +982,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -947,7 +991,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -965,7 +1009,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Jus concentré de raisin
 Extraits liquides et poudre de racine de réglisse
@@ -983,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1002,6 +1048,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1009,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1028,6 +1076,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1035,7 +1085,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1053,7 +1103,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>delta-undercalactone (delta-undécalactone ?)
 gamma-undécalactone
@@ -1071,7 +1123,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1090,6 +1142,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1097,7 +1151,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27additifs_dans_les_cigarettes</t>
+          <t>Liste_d'additifs_dans_les_cigarettes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1115,7 +1169,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Gomme xanthane
 Xérès
